--- a/src/main/resources/jxls_templates/warehouse.xlsx
+++ b/src/main/resources/jxls_templates/warehouse.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="7860"/>
+    <workbookView windowWidth="19815" windowHeight="7260"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -118,6 +118,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
+是：1；否：0
 </t>
         </r>
       </text>
@@ -210,6 +211,51 @@
           </rPr>
           <t xml:space="preserve">
 是：1；否：0
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U2" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>ASUS:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+启用：是；不启用：否</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V2" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>ASUS:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+启用：是；不启用：否
 </t>
         </r>
       </text>
@@ -219,7 +265,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>仓库档案数据</t>
   </si>
@@ -291,45 +337,6 @@
   </si>
   <si>
     <t>备注</t>
-  </si>
-  <si>
-    <t>001</t>
-  </si>
-  <si>
-    <t>1号仓</t>
-  </si>
-  <si>
-    <t>A部</t>
-  </si>
-  <si>
-    <t>广东省广州市天河区</t>
-  </si>
-  <si>
-    <t>樊非</t>
-  </si>
-  <si>
-    <t>清单计价</t>
-  </si>
-  <si>
-    <t>否</t>
-  </si>
-  <si>
-    <t>原材料仓</t>
-  </si>
-  <si>
-    <t>是</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>1000</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>导入测试</t>
   </si>
 </sst>
 </file>
@@ -342,7 +349,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -364,12 +371,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Microsoft YaHei"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -719,27 +720,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -848,10 +834,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -860,33 +846,36 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -896,101 +885,98 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1001,9 +987,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1354,13 +1337,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:W3"/>
+  <dimension ref="A1:W2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="3" width="13.175" style="1" customWidth="1"/>
     <col min="4" max="4" width="22.0083333333333" style="1" customWidth="1"/>
@@ -1480,77 +1463,6 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" ht="22.5" customHeight="1" spans="1:23">
-      <c r="A3" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="O3" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="P3" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q3" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="R3" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="S3" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="T3" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="U3" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="V3" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="W3" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:W1"/>

--- a/src/main/resources/jxls_templates/warehouse.xlsx
+++ b/src/main/resources/jxls_templates/warehouse.xlsx
@@ -32,7 +32,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="1">
+    <comment ref="A3" authorId="1">
       <text>
         <r>
           <rPr>
@@ -50,212 +50,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-是：1；否：0</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H2" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>ASUS:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-是：1；否：0
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J2" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>ASUS:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-是：1；否：0
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="K2" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>ASUS:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-是：1；否：0
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L2" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>ASUS:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-是：1；否：0
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M2" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>ASUS:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-是：1；否：0
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Q2" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>ASUS:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-是：1；否：0
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="R2" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>ASUS:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-是：1；否：0
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="U2" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>ASUS:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-启用：是；不启用：否</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="V2" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>ASUS:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-启用：是；不启用：否
+jx:each(items="rows" var="row" lastCell="I3")
 </t>
         </r>
       </text>
@@ -265,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>仓库档案数据</t>
   </si>
@@ -285,58 +80,43 @@
     <t>负责人</t>
   </si>
   <si>
-    <t>*计价方式</t>
-  </si>
-  <si>
-    <t>*是否冻结</t>
-  </si>
-  <si>
-    <t>*是否参与MRP运算</t>
-  </si>
-  <si>
     <t>*仓库属性</t>
   </si>
   <si>
-    <t>*是否门店</t>
-  </si>
-  <si>
-    <t>*是否计入成本</t>
-  </si>
-  <si>
-    <t>*是否纳入可用量计算</t>
-  </si>
-  <si>
-    <t>*是否为代管仓</t>
-  </si>
-  <si>
-    <t>*销售可用量控制方式</t>
-  </si>
-  <si>
-    <t>*出口可用量控制方式</t>
-  </si>
-  <si>
-    <t>*库存可用量控制方式</t>
-  </si>
-  <si>
-    <t>*是否保税仓</t>
-  </si>
-  <si>
-    <t>*是否资产仓</t>
-  </si>
-  <si>
     <t>最大存货数量</t>
   </si>
   <si>
     <t>最大存货空间</t>
   </si>
   <si>
-    <t>*启用库存预警</t>
-  </si>
-  <si>
-    <t>*启用空间掌控</t>
-  </si>
-  <si>
     <t>备注</t>
+  </si>
+  <si>
+    <t>${row.cwhcode}</t>
+  </si>
+  <si>
+    <t>${row.cwhname}</t>
+  </si>
+  <si>
+    <t>${row.cdepcode}</t>
+  </si>
+  <si>
+    <t>${row.cwhaddress}</t>
+  </si>
+  <si>
+    <t>${row.cwhperson}</t>
+  </si>
+  <si>
+    <t>${row.iwhproperty}</t>
+  </si>
+  <si>
+    <t>${row.iMaxStock}</t>
+  </si>
+  <si>
+    <t>${row.imaxspace}</t>
+  </si>
+  <si>
+    <t>${row.cwhmemo}</t>
   </si>
 </sst>
 </file>
@@ -349,7 +129,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -367,6 +147,20 @@
     <font>
       <b/>
       <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Microsoft YaHei"/>
       <charset val="134"/>
     </font>
@@ -834,10 +628,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -846,37 +640,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -885,98 +673,104 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -987,6 +781,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1337,35 +1137,29 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:W2"/>
+  <dimension ref="A1:Y10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="3" width="13.175" style="1" customWidth="1"/>
+    <col min="1" max="1" width="21.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="22.0083333333333" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5083333333333" style="1" customWidth="1"/>
-    <col min="6" max="7" width="13.175" style="1" customWidth="1"/>
-    <col min="8" max="8" width="23.0083333333333" style="1" customWidth="1"/>
-    <col min="9" max="10" width="13.175" style="1" customWidth="1"/>
-    <col min="11" max="11" width="16.8416666666667" style="1" customWidth="1"/>
-    <col min="12" max="12" width="24.3416666666667" style="1" customWidth="1"/>
-    <col min="13" max="13" width="16.8416666666667" style="1" customWidth="1"/>
-    <col min="14" max="16" width="24.3416666666667" style="1" customWidth="1"/>
-    <col min="17" max="17" width="15.0083333333333" style="1" customWidth="1"/>
-    <col min="18" max="18" width="11.3416666666667" style="1" customWidth="1"/>
-    <col min="19" max="20" width="16.0083333333333" style="1" customWidth="1"/>
-    <col min="21" max="22" width="16.8416666666667" style="1" customWidth="1"/>
-    <col min="23" max="23" width="11.675" style="1" customWidth="1"/>
-    <col min="24" max="24" width="11.1333333333333" style="1" customWidth="1"/>
-    <col min="25" max="25" width="20.25" style="1" customWidth="1"/>
-    <col min="26" max="16384" width="9" style="1"/>
+    <col min="5" max="5" width="17.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="21.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19.875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="20.125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="17.625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11.1333333333333" style="1" customWidth="1"/>
+    <col min="11" max="11" width="20.25" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="28.5" customHeight="1" spans="1:23">
+    <row r="1" ht="28.5" customHeight="1" spans="1:9">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1377,22 +1171,8 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
     </row>
-    <row r="2" ht="22.5" customHeight="1" spans="1:23">
+    <row r="2" ht="22.5" customHeight="1" spans="1:9">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1420,52 +1200,60 @@
       <c r="I2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="3" t="s">
+    </row>
+    <row r="3" ht="22.5" customHeight="1" spans="1:9">
+      <c r="A3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="E3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="F3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="G3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="H3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="I3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="S2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="T2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="V2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="W2" s="3" t="s">
-        <v>23</v>
-      </c>
+    </row>
+    <row r="10" ht="16.5" spans="7:25">
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="5"/>
+      <c r="W10" s="5"/>
+      <c r="X10" s="5"/>
+      <c r="Y10" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="A1:I1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/src/main/resources/jxls_templates/warehouse.xlsx
+++ b/src/main/resources/jxls_templates/warehouse.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="7260"/>
+    <workbookView windowWidth="19815" windowHeight="7860"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>仓库档案数据</t>
   </si>
@@ -80,9 +80,6 @@
     <t>负责人</t>
   </si>
   <si>
-    <t>*仓库属性</t>
-  </si>
-  <si>
     <t>最大存货数量</t>
   </si>
   <si>
@@ -105,9 +102,6 @@
   </si>
   <si>
     <t>${row.cwhperson}</t>
-  </si>
-  <si>
-    <t>${row.iwhproperty}</t>
   </si>
   <si>
     <t>${row.iMaxStock}</t>
@@ -1137,10 +1131,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Y10"/>
+  <dimension ref="A1:X10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1150,16 +1144,15 @@
     <col min="3" max="3" width="17.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="22.0083333333333" style="1" customWidth="1"/>
     <col min="5" max="5" width="17.625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="19.875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="20.125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="17.625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="11.1333333333333" style="1" customWidth="1"/>
-    <col min="11" max="11" width="20.25" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="1"/>
+    <col min="6" max="6" width="19.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="20.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17.625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.1333333333333" style="1" customWidth="1"/>
+    <col min="10" max="10" width="20.25" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="28.5" customHeight="1" spans="1:9">
+    <row r="1" ht="28.5" customHeight="1" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1170,9 +1163,8 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
     </row>
-    <row r="2" ht="22.5" customHeight="1" spans="1:9">
+    <row r="2" ht="22.5" customHeight="1" spans="1:8">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1197,40 +1189,35 @@
       <c r="H2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="3" t="s">
+    </row>
+    <row r="3" ht="22.5" customHeight="1" spans="1:8">
+      <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
+      <c r="B3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="3" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" ht="16.5" spans="7:25">
+    <row r="10" ht="16.5" spans="6:24">
+      <c r="F10" s="5"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
@@ -1249,11 +1236,10 @@
       <c r="V10" s="5"/>
       <c r="W10" s="5"/>
       <c r="X10" s="5"/>
-      <c r="Y10" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/src/main/resources/jxls_templates/warehouse.xlsx
+++ b/src/main/resources/jxls_templates/warehouse.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="7860"/>
+    <workbookView windowWidth="19815" windowHeight="7260"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -95,7 +95,7 @@
     <t>${row.cwhname}</t>
   </si>
   <si>
-    <t>${row.cdepcode}</t>
+    <t>${row.cDepName}</t>
   </si>
   <si>
     <t>${row.cwhaddress}</t>
@@ -1134,7 +1134,7 @@
   <dimension ref="A1:X10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
